--- a/Go学习安排.xlsx
+++ b/Go学习安排.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wy_Work\AngYony\ay-golang-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2B2045-E8B1-4596-B38D-D3D1926D4DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0AA19-417F-4936-B8EB-488D44733D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="-120" windowWidth="26610" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,46 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地铁上看视频教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看书籍的时候，需要对照《Go语言程序设计》做笔记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要轻易买书，买之前要看目录内容是否值得买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精读：《Go核心36讲》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗读：《Go语言高级编程》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗读：《Go语言学习笔记》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Go编程之旅》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Go微服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,7 +55,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精读：《Go程序设计语言》</t>
+    <t>学习方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Go核心36讲》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Go从入门到实践》极客视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Go语言高级编程》微信读书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕课网课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Go语言学习笔记》+《Go程序设计语言》（在线版）作为其他学习项的参考书籍，主要用来查资料的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时一篇文章，要求精读，一天不少于5篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -190,6 +184,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -481,14 +481,14 @@
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="62.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="109.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,148 +499,139 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44307</v>
+        <v>44330</v>
       </c>
       <c r="B2" s="3">
-        <v>44322</v>
+        <v>44332</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44333</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -927,6 +918,13 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
